--- a/biology/Zoologie/Albère_(race_bovine)/Albère_(race_bovine).xlsx
+++ b/biology/Zoologie/Albère_(race_bovine)/Albère_(race_bovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alb%C3%A8re_(race_bovine)</t>
+          <t>Albère_(race_bovine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Albère (en catalan, albera) est une race bovine catalane originaire du Massif des Albères, à l'extrémité orientale des Pyrénées. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alb%C3%A8re_(race_bovine)</t>
+          <t>Albère_(race_bovine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles sont être également appelées Fagina ou Massanesa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont être également appelées Fagina ou Massanesa.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alb%C3%A8re_(race_bovine)</t>
+          <t>Albère_(race_bovine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alb%C3%A8re_(race_bovine)</t>
+          <t>Albère_(race_bovine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,11 +585,48 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, leur nombre est estimé à 350 des deux côtés de la frontière franco-espagnole[2].
-Statut actuel de la race
-Cette race dispose d'un label en Espagne[2]. L’Association de Défense et de Promotion des Races Locales en Pays Catalan (ADPRLPC) demande pour la reconnaissance de la vache des Albères et de la chèvre catalane[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, leur nombre est estimé à 350 des deux côtés de la frontière franco-espagnole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albère_(race_bovine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alb%C3%A8re_(race_bovine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Statut actuel de la race</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race dispose d'un label en Espagne. L’Association de Défense et de Promotion des Races Locales en Pays Catalan (ADPRLPC) demande pour la reconnaissance de la vache des Albères et de la chèvre catalane.
 </t>
         </is>
       </c>
